--- a/Recycling/Met_rec_tech/metrec_tech_Avg_hist_Avg.xlsx
+++ b/Recycling/Met_rec_tech/metrec_tech_Avg_hist_Avg.xlsx
@@ -137,7 +137,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.011919953732144E-12</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -690,13 +690,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>3.775975949195253E-06</v>
+      </c>
+      <c r="E7">
         <v>6.504060917552255</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3.175269764768029E-08</v>
-      </c>
-      <c r="F7">
-        <v>3.775975949195253E-06</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -706,10 +706,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.3466524613401939</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.91376648107141</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -805,13 +805,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>501184.3684973923</v>
+      </c>
+      <c r="E7">
         <v>1202537.346361184</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>88149.77579298757</v>
-      </c>
-      <c r="F7">
-        <v>501184.3684973923</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -821,10 +821,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>64092.65476659955</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -891,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.53391575756767</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -920,13 +920,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>482216.5984736028</v>
+      </c>
+      <c r="E7">
         <v>1236018.618522083</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>85743.25587925958</v>
-      </c>
-      <c r="F7">
-        <v>482216.5984736028</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -936,10 +936,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>65877.13457859747</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.933902968811577E-11</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1035,13 +1035,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>5.034738663362611E-05</v>
+      </c>
+      <c r="E7">
         <v>13.26992030347876</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5.026473376676972E-07</v>
-      </c>
-      <c r="F7">
-        <v>5.034738663362611E-05</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1051,10 +1051,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.7072582181041923</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1121,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.034349444252009E-09</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1150,13 +1150,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.000561395323773633</v>
+      </c>
+      <c r="E7">
         <v>28.12751433604869</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6.553054611521327E-06</v>
-      </c>
-      <c r="F7">
-        <v>0.000561395323773633</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1166,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1.499136032022647</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.29888132195331E-09</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1265,13 +1265,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.004391949196333396</v>
+      </c>
+      <c r="E7">
         <v>50.08990815823981</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5.891246664020946E-05</v>
-      </c>
-      <c r="F7">
-        <v>0.004391949196333396</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1281,10 +1281,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2.669684397404567</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.641932393899191E-08</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1380,13 +1380,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.0319406372089533</v>
+      </c>
+      <c r="E7">
         <v>96.66502933641098</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.0004841497290211171</v>
-      </c>
-      <c r="F7">
-        <v>0.0319406372089533</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1396,10 +1396,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5.152038206554772</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.118096523779135E-07</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1495,13 +1495,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.1922169668013885</v>
+      </c>
+      <c r="E7">
         <v>175.8728401221033</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.003242537250224563</v>
-      </c>
-      <c r="F7">
-        <v>0.1922169668013885</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1511,10 +1511,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>9.373644202299658</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.471073193406742E-06</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1610,13 +1610,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.8452014932034643</v>
+      </c>
+      <c r="E7">
         <v>260.3415310165561</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.01565532584316398</v>
-      </c>
-      <c r="F7">
-        <v>0.8452014932034643</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1626,10 +1626,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>13.8756437954655</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1696,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.255618544009554E-05</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1725,13 +1725,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>3.957346170408587</v>
+      </c>
+      <c r="E7">
         <v>447.1163118059849</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.07954890811667317</v>
-      </c>
-      <c r="F7">
-        <v>3.957346170408587</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1741,10 +1741,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>23.83033799308645</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1811,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.845213862957547E-05</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1840,13 +1840,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>17.14673942309732</v>
+      </c>
+      <c r="E7">
         <v>760.4792190042997</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.3703197780289998</v>
-      </c>
-      <c r="F7">
-        <v>17.14673942309732</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1856,10 +1856,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>40.53190712812705</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0002529796797616677</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1955,13 +1955,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>69.65746071487203</v>
+      </c>
+      <c r="E7">
         <v>1280.840782622831</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.602736547397884</v>
-      </c>
-      <c r="F7">
-        <v>69.65746071487203</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1971,10 +1971,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>68.26605954487314</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2156,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0009108170573202787</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2185,13 +2185,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>236.9539176918312</v>
+      </c>
+      <c r="E7">
         <v>1891.688974631344</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5.77042309143518</v>
-      </c>
-      <c r="F7">
-        <v>236.9539176918312</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2201,10 +2201,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>100.8229546830339</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.003263330588503153</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2300,13 +2300,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>804.9505541086575</v>
+      </c>
+      <c r="E7">
         <v>2912.264191182386</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>20.67462179319256</v>
-      </c>
-      <c r="F7">
-        <v>804.9505541086575</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2316,10 +2316,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>155.2174192006516</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2386,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.01100292900917276</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2415,13 +2415,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2565.605302625684</v>
+      </c>
+      <c r="E7">
         <v>4415.178898444755</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>69.70835154839047</v>
-      </c>
-      <c r="F7">
-        <v>2565.605302625684</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2431,10 +2431,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>235.3195414072417</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2501,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.02936147181590694</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2530,13 +2530,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>6355.255174462264</v>
+      </c>
+      <c r="E7">
         <v>5596.211279312894</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>186.0177228822528</v>
-      </c>
-      <c r="F7">
-        <v>6355.255174462264</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2546,10 +2546,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>298.2660277548028</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2616,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.08069138630454609</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2645,13 +2645,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>15404.56976695818</v>
+      </c>
+      <c r="E7">
         <v>7969.580121131323</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>511.2151063371422</v>
-      </c>
-      <c r="F7">
-        <v>15404.56976695818</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2661,10 +2661,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>424.7614836113436</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1786446395116975</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2760,13 +2760,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>27222.07426896144</v>
+      </c>
+      <c r="E7">
         <v>10784.49042374502</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1131.791664104644</v>
-      </c>
-      <c r="F7">
-        <v>27222.07426896144</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2776,10 +2776,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>574.7901498896016</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.2823179019364043</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2875,13 +2875,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>32442.75382947481</v>
+      </c>
+      <c r="E7">
         <v>14259.05869918477</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1788.606973668596</v>
-      </c>
-      <c r="F7">
-        <v>32442.75382947481</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2891,10 +2891,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>759.9771676688005</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.2635598535381007</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2990,13 +2990,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>30797.66739629037</v>
+      </c>
+      <c r="E7">
         <v>18441.90033541034</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1669.766560264077</v>
-      </c>
-      <c r="F7">
-        <v>30797.66739629037</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3006,10 +3006,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>982.9136325904009</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1476621289971032</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3105,13 +3105,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>30721.33943399007</v>
+      </c>
+      <c r="E7">
         <v>23354.51477454842</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>935.5039544409216</v>
-      </c>
-      <c r="F7">
-        <v>30721.33943399007</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3121,10 +3121,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1244.74541868989</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3191,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1191131706452331</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3220,13 +3220,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>32554.5507650887</v>
+      </c>
+      <c r="E7">
         <v>28984.444625683</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>754.6338585352373</v>
-      </c>
-      <c r="F7">
-        <v>32554.5507650887</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3236,10 +3236,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1544.808573818349</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3335,10 +3335,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>4.086790908983289E-05</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3351,10 +3351,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2.178171676957396E-06</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1972652275187498</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3450,13 +3450,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>34605.17288903651</v>
+      </c>
+      <c r="E7">
         <v>35284.55526825905</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1249.761206010371</v>
-      </c>
-      <c r="F7">
-        <v>34605.17288903651</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3466,10 +3466,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1880.590924052924</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3536,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.2874364216329397</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3565,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>36152.81063893247</v>
+      </c>
+      <c r="E7">
         <v>42180.62573674833</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1821.035027154717</v>
-      </c>
-      <c r="F7">
-        <v>36152.81063893247</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3581,10 +3581,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2248.136651526966</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3651,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.4043050867530366</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3680,13 +3680,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>37745.21213938724</v>
+      </c>
+      <c r="E7">
         <v>49588.56903730048</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2561.44896478816</v>
-      </c>
-      <c r="F7">
-        <v>37745.21213938724</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3696,10 +3696,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2642.964100279006</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3766,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.5547003296610027</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3795,13 +3795,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>40707.33536947058</v>
+      </c>
+      <c r="E7">
         <v>57444.28891412664</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3514.268387243225</v>
-      </c>
-      <c r="F7">
-        <v>40707.33536947058</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3811,10 +3811,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3061.657077700521</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.6539309967147369</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3910,13 +3910,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>40938.10936521953</v>
+      </c>
+      <c r="E7">
         <v>65749.05662277686</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4142.937918564962</v>
-      </c>
-      <c r="F7">
-        <v>40938.10936521953</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3926,10 +3926,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3504.283338978775</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.7825783206279564</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4025,13 +4025,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>40373.96200367132</v>
+      </c>
+      <c r="E7">
         <v>74631.3384491101</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4957.974794075679</v>
-      </c>
-      <c r="F7">
-        <v>40373.96200367132</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4041,10 +4041,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3977.689860911302</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.236185312910665</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4140,13 +4140,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>41186.84298615965</v>
+      </c>
+      <c r="E7">
         <v>84422.41777712772</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7831.772821536405</v>
-      </c>
-      <c r="F7">
-        <v>41186.84298615965</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4156,10 +4156,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4499.533335512665</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4226,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.994675895012596</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4255,13 +4255,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>41380.60164284312</v>
+      </c>
+      <c r="E7">
         <v>95737.44120482338</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>12637.1412919888</v>
-      </c>
-      <c r="F7">
-        <v>41380.60164284312</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4271,10 +4271,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5102.59975371725</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4341,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.85765470262407</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4370,13 +4370,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>43038.7996692729</v>
+      </c>
+      <c r="E7">
         <v>109546.5289479795</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>18104.48821839728</v>
-      </c>
-      <c r="F7">
-        <v>43038.7996692729</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4386,10 +4386,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5838.594436994188</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4456,10 +4456,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.689930295438638</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4485,13 +4485,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>44690.51382386005</v>
+      </c>
+      <c r="E7">
         <v>127213.3809649152</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>23377.3168952611</v>
-      </c>
-      <c r="F7">
-        <v>44690.51382386005</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4501,10 +4501,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6780.199660782363</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4600,10 +4600,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.002054513671185868</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4616,10 +4616,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.0001095011608903703</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4686,10 +4686,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.55321728982004</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4715,13 +4715,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>43825.85437492201</v>
+      </c>
+      <c r="E7">
         <v>150474.3481503368</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>22511.18041024393</v>
-      </c>
-      <c r="F7">
-        <v>43825.85437492201</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4731,10 +4731,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>8019.959194125495</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4801,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.157906734012129</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4830,13 +4830,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>40542.34764533127</v>
+      </c>
+      <c r="E7">
         <v>181340.4968890768</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>20006.71571978972</v>
-      </c>
-      <c r="F7">
-        <v>40542.34764533127</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4846,10 +4846,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>9665.058550975231</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4916,10 +4916,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.063999906781998</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4945,13 +4945,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>37048.4888036225</v>
+      </c>
+      <c r="E7">
         <v>221919.845473542</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19411.77503445997</v>
-      </c>
-      <c r="F7">
-        <v>37048.4888036225</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4961,10 +4961,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>11827.850573483</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5031,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.780421535119619</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5060,13 +5060,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>38956.72500679213</v>
+      </c>
+      <c r="E7">
         <v>274172.757625974</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17615.18243562728</v>
-      </c>
-      <c r="F7">
-        <v>38956.72500679213</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5076,10 +5076,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>14612.81843270938</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5146,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.430768059759922</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5175,13 +5175,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>48283.06419761918</v>
+      </c>
+      <c r="E7">
         <v>339628.6348143356</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>15399.97525214271</v>
-      </c>
-      <c r="F7">
-        <v>48283.06419761918</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5191,10 +5191,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>18101.47593825229</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5261,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.1629533807874</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5290,13 +5290,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>70764.15144930749</v>
+      </c>
+      <c r="E7">
         <v>419099.4987174117</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>13703.25251803507</v>
-      </c>
-      <c r="F7">
-        <v>70764.15144930749</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5306,10 +5306,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>22337.10209951534</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5376,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.804079763777252</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5405,13 +5405,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>112362.4429851514</v>
+      </c>
+      <c r="E7">
         <v>512424.6478689875</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17765.0676270071</v>
-      </c>
-      <c r="F7">
-        <v>112362.4429851514</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5421,10 +5421,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>27311.13187390276</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5491,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.35575242653932</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5520,13 +5520,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>168840.0904031178</v>
+      </c>
+      <c r="E7">
         <v>618272.3454764778</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27595.59033361298</v>
-      </c>
-      <c r="F7">
-        <v>168840.0904031178</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5536,10 +5536,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>32952.58655397944</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5606,10 +5606,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.070362959565379</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5635,13 +5635,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>231026.3112958876</v>
+      </c>
+      <c r="E7">
         <v>734017.6065340595</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>38458.39547441794</v>
-      </c>
-      <c r="F7">
-        <v>231026.3112958876</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5651,10 +5651,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>39121.56008339314</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5721,10 +5721,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.54851431857398</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5750,13 +5750,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>319401.2867624644</v>
+      </c>
+      <c r="E7">
         <v>855716.9378921537</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>54158.56458210545</v>
-      </c>
-      <c r="F7">
-        <v>319401.2867624644</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5766,10 +5766,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>45607.87275689375</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5865,10 +5865,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.01987603780147138</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.001059350075731426</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5951,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.75722203071042</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5980,13 +5980,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>432148.2790854624</v>
+      </c>
+      <c r="E7">
         <v>978209.4462407995</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>74487.12664291395</v>
-      </c>
-      <c r="F7">
-        <v>432148.2790854624</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5996,10 +5996,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>52136.46005843652</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6066,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.35873546240079</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6095,13 +6095,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>489495.4906890954</v>
+      </c>
+      <c r="E7">
         <v>1095378.279318982</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>84633.41234671816</v>
-      </c>
-      <c r="F7">
-        <v>489495.4906890954</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6111,10 +6111,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>58381.3069154669</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6181,10 +6181,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.43359847598901</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6210,13 +6210,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>493235.6627367007</v>
+      </c>
+      <c r="E7">
         <v>1200593.913466704</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>85107.70217125742</v>
-      </c>
-      <c r="F7">
-        <v>493235.6627367007</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6226,10 +6226,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>63989.07397225266</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6296,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.32780794360537</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6325,13 +6325,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>488966.1683444281</v>
+      </c>
+      <c r="E7">
         <v>1287325.785698669</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>84437.47303356671</v>
-      </c>
-      <c r="F7">
-        <v>488966.1683444281</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6341,10 +6341,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>68611.6962642297</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6411,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.05440612459201</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6440,13 +6440,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>477568.3137337496</v>
+      </c>
+      <c r="E7">
         <v>1349858.589818428</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>82705.35333181603</v>
-      </c>
-      <c r="F7">
-        <v>477568.3137337496</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6456,10 +6456,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>71944.56026064762</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6526,10 +6526,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.64326500224308</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6555,13 +6555,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>460505.8311418396</v>
+      </c>
+      <c r="E7">
         <v>1384002.431328636</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>80100.59510163873</v>
-      </c>
-      <c r="F7">
-        <v>460505.8311418396</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6571,10 +6571,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>73764.35359425272</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6641,10 +6641,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.38388960940316</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6670,13 +6670,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>447503.9273151105</v>
+      </c>
+      <c r="E7">
         <v>1387663.11885904</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>78457.33892394154</v>
-      </c>
-      <c r="F7">
-        <v>447503.9273151105</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6686,10 +6686,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>73959.46036811259</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.08234791660734</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6785,13 +6785,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>430527.9877597552</v>
+      </c>
+      <c r="E7">
         <v>1361154.844781709</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76546.94085535595</v>
-      </c>
-      <c r="F7">
-        <v>430527.9877597552</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6801,10 +6801,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>72546.62636005637</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6871,10 +6871,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.12417334382012</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6900,13 +6900,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>386056.3466537686</v>
+      </c>
+      <c r="E7">
         <v>1307193.160493445</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>70476.48725987262</v>
-      </c>
-      <c r="F7">
-        <v>386056.3466537686</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6916,10 +6916,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>69670.58462033221</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6986,10 +6986,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.909007342232186</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7015,13 +7015,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>291493.3260712352</v>
+      </c>
+      <c r="E7">
         <v>1230584.900864704</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>56442.44502911725</v>
-      </c>
-      <c r="F7">
-        <v>291493.3260712352</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7031,10 +7031,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>65587.52911148462</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7130,10 +7130,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.09443523181643231</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7146,10 +7146,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.005033194793433458</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7216,10 +7216,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.889340983884488</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7245,13 +7245,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>164340.3932581235</v>
+      </c>
+      <c r="E7">
         <v>1137702.503908633</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>37311.54234937933</v>
-      </c>
-      <c r="F7">
-        <v>164340.3932581235</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7261,10 +7261,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>60637.09707707555</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7331,10 +7331,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.60624547677932</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7360,13 +7360,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>98859.95385813713</v>
+      </c>
+      <c r="E7">
         <v>1035862.971759861</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>29182.57299904704</v>
-      </c>
-      <c r="F7">
-        <v>98859.95385813713</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7376,10 +7376,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>55209.26899726236</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.754780591752295</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7475,13 +7475,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>91588.05423686297</v>
+      </c>
+      <c r="E7">
         <v>932712.6581730352</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30123.60770018751</v>
-      </c>
-      <c r="F7">
-        <v>91588.05423686297</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7491,10 +7491,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>49711.57908535068</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7561,10 +7561,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.561200107927422</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7590,13 +7590,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>84682.37120709558</v>
+      </c>
+      <c r="E7">
         <v>835662.97557139</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>28897.19095169063</v>
-      </c>
-      <c r="F7">
-        <v>84682.37120709558</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7606,10 +7606,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>44539.03968687194</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7676,10 +7676,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.964730650536488</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7705,13 +7705,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>70939.45622366936</v>
+      </c>
+      <c r="E7">
         <v>751369.8424135093</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>25118.29693274148</v>
-      </c>
-      <c r="F7">
-        <v>70939.45622366936</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7721,10 +7721,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>40046.39694356674</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7791,10 +7791,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.251350689140573</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7820,13 +7820,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>55549.08699184905</v>
+      </c>
+      <c r="E7">
         <v>685241.8476382492</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>20598.72390858521</v>
-      </c>
-      <c r="F7">
-        <v>55549.08699184905</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7836,10 +7836,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>36521.91701588452</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7906,10 +7906,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.816084316538887</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7935,13 +7935,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>55164.01077762355</v>
+      </c>
+      <c r="E7">
         <v>641006.0676628647</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17841.1217016441</v>
-      </c>
-      <c r="F7">
-        <v>55164.01077762355</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7951,10 +7951,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>34164.24506259948</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.745385299374087</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8050,13 +8050,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>73245.21246331681</v>
+      </c>
+      <c r="E7">
         <v>620418.5010938166</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17393.21260957044</v>
-      </c>
-      <c r="F7">
-        <v>73245.21246331681</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8066,10 +8066,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>33066.97203354375</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.079210808993393</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8165,13 +8165,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>105599.9543866203</v>
+      </c>
+      <c r="E7">
         <v>623221.6794492922</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19508.14273053763</v>
-      </c>
-      <c r="F7">
-        <v>105599.9543866203</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8181,10 +8181,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>33216.37541226653</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8251,10 +8251,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.041769782530044</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8280,13 +8280,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>153007.410374271</v>
+      </c>
+      <c r="E7">
         <v>647395.3349310734</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>25606.37341596813</v>
-      </c>
-      <c r="F7">
-        <v>153007.410374271</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8296,10 +8296,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>34504.77926926838</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8366,10 +8366,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.637832766790475E-17</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8395,13 +8395,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>9.021981185772541E-11</v>
+      </c>
+      <c r="E7">
         <v>0.3331163084819778</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4.205356406835931E-13</v>
-      </c>
-      <c r="F7">
-        <v>9.021981185772541E-11</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8411,10 +8411,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.01775438294807594</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8481,10 +8481,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.627315724422076</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8510,13 +8510,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>213992.1549557882</v>
+      </c>
+      <c r="E7">
         <v>689641.1949924772</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>35651.49811152803</v>
-      </c>
-      <c r="F7">
-        <v>213992.1549557882</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8526,10 +8526,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>36756.39277002729</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8596,10 +8596,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.637121662186903</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8625,13 +8625,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>286320.8699983675</v>
+      </c>
+      <c r="E7">
         <v>745954.0834977065</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>48384.49481967332</v>
-      </c>
-      <c r="F7">
-        <v>286320.8699983675</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8641,10 +8641,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>39757.74863876356</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8711,10 +8711,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.876355001697355</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8740,13 +8740,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>365997.7505959948</v>
+      </c>
+      <c r="E7">
         <v>812116.0439247667</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>62571.01412733598</v>
-      </c>
-      <c r="F7">
-        <v>365997.7505959948</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8756,10 +8756,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>43284.038862651</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8826,10 +8826,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.89278257108709</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8855,13 +8855,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>437454.2599818772</v>
+      </c>
+      <c r="E7">
         <v>884016.4945464656</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>75345.96175825359</v>
-      </c>
-      <c r="F7">
-        <v>437454.2599818772</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8871,10 +8871,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>47116.17827454031</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.05601781854022</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8970,13 +8970,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>478787.8370394208</v>
+      </c>
+      <c r="E7">
         <v>957802.2173920831</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>82715.56411552973</v>
-      </c>
-      <c r="F7">
-        <v>478787.8370394208</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8986,10 +8986,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>51048.79864209752</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9056,10 +9056,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.3312792299112</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9085,13 +9085,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>488440.5943527289</v>
+      </c>
+      <c r="E7">
         <v>1029930.617898398</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>84459.46514547897</v>
-      </c>
-      <c r="F7">
-        <v>488440.5943527289</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9101,10 +9101,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>54893.08729268035</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9171,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.19135618395035</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9200,13 +9200,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>482384.5802952725</v>
+      </c>
+      <c r="E7">
         <v>1097205.032724235</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>83572.99165560833</v>
-      </c>
-      <c r="F7">
-        <v>482384.5802952725</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9216,10 +9216,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>58478.66894393184</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9286,10 +9286,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.92121058433647</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9315,13 +9315,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>470418.4606305891</v>
+      </c>
+      <c r="E7">
         <v>1156830.498501673</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>81861.50152316847</v>
-      </c>
-      <c r="F7">
-        <v>470418.4606305891</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9331,10 +9331,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>61656.57805830144</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.60802608100697</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9430,13 +9430,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>455425.0132500252</v>
+      </c>
+      <c r="E7">
         <v>1206486.637991615</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>79877.34117464667</v>
-      </c>
-      <c r="F7">
-        <v>455425.0132500252</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9446,10 +9446,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>64303.14351841075</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9516,10 +9516,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.3042689848395</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9545,13 +9545,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>438570.3661804026</v>
+      </c>
+      <c r="E7">
         <v>1244399.477625945</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>77952.90755998755</v>
-      </c>
-      <c r="F7">
-        <v>438570.3661804026</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9561,10 +9561,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>66323.81634762255</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9631,10 +9631,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.483740071593565E-15</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9660,13 +9660,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>5.868759650028586E-09</v>
+      </c>
+      <c r="E7">
         <v>1.063793025154655</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3.474188376494669E-11</v>
-      </c>
-      <c r="F7">
-        <v>5.868759650028586E-09</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9676,10 +9676,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.05669788078571283</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.92698281178928</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9775,13 +9775,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>415890.7598816982</v>
+      </c>
+      <c r="E7">
         <v>1269402.062100763</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>75562.63519129314</v>
-      </c>
-      <c r="F7">
-        <v>415890.7598816982</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9791,10 +9791,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>67656.40033752218</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9861,10 +9861,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.14479444923263</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9890,13 +9890,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>375037.8217361128</v>
+      </c>
+      <c r="E7">
         <v>1280984.842448362</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>70607.13095158535</v>
-      </c>
-      <c r="F7">
-        <v>375037.8217361128</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9906,10 +9906,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>68273.73762380467</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9976,10 +9976,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.552449547122341</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10005,13 +10005,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>302487.9332322698</v>
+      </c>
+      <c r="E7">
         <v>1279338.00725802</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>60518.9318793152</v>
-      </c>
-      <c r="F7">
-        <v>302487.9332322698</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10021,10 +10021,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>68185.96484931959</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10091,10 +10091,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.737257700952084</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10120,13 +10120,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>221445.7808474789</v>
+      </c>
+      <c r="E7">
         <v>1265380.114122968</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>49018.90027544671</v>
-      </c>
-      <c r="F7">
-        <v>221445.7808474789</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10136,10 +10136,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>67442.03915862819</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.628851965997503</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10235,13 +10235,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>168631.0584681723</v>
+      </c>
+      <c r="E7">
         <v>1240757.831461008</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>41996.66678052433</v>
-      </c>
-      <c r="F7">
-        <v>168631.0584681723</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10251,10 +10251,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>66129.72443759776</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10321,10 +10321,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.168473433121754</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10350,13 +10350,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>145792.1804097067</v>
+      </c>
+      <c r="E7">
         <v>1207796.168985475</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>39079.96809163153</v>
-      </c>
-      <c r="F7">
-        <v>145792.1804097067</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10366,10 +10366,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>64372.93870452247</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10436,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.806417831703263</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10465,13 +10465,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>134721.8311625958</v>
+      </c>
+      <c r="E7">
         <v>1169380.408054387</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>36786.18803336668</v>
-      </c>
-      <c r="F7">
-        <v>134721.8311625958</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10481,10 +10481,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>62325.46125161607</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10551,10 +10551,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.320869808245998</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10580,13 +10580,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>125726.4735101456</v>
+      </c>
+      <c r="E7">
         <v>1128761.458689853</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>33710.02965003365</v>
-      </c>
-      <c r="F7">
-        <v>125726.4735101456</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10596,10 +10596,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>60160.55859268349</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10666,10 +10666,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.853834444286388</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10695,13 +10695,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>121661.9518218969</v>
+      </c>
+      <c r="E7">
         <v>1089294.832205784</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30751.15703445228</v>
-      </c>
-      <c r="F7">
-        <v>121661.9518218969</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10711,10 +10711,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>58057.07226546045</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.615421549436133</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10810,13 +10810,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>129042.3794447271</v>
+      </c>
+      <c r="E7">
         <v>1054144.919310012</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>29240.70741926018</v>
-      </c>
-      <c r="F7">
-        <v>129042.3794447271</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10826,10 +10826,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>56183.65749034206</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.212362896157812E-13</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10925,13 +10925,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.994718537488576E-07</v>
+      </c>
+      <c r="E7">
         <v>2.944587506740783</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.401628333595682E-09</v>
-      </c>
-      <c r="F7">
-        <v>1.994718537488576E-07</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10941,10 +10941,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.1569401824156694</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11011,10 +11011,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.753864978254616</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11040,13 +11040,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>151343.3163522865</v>
+      </c>
+      <c r="E7">
         <v>1026001.92713648</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30117.80688955559</v>
-      </c>
-      <c r="F7">
-        <v>151343.3163522865</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11056,10 +11056,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>54683.69652286326</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11126,10 +11126,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.399757584929303</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11155,13 +11155,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>189532.6642312044</v>
+      </c>
+      <c r="E7">
         <v>1006860.219838615</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>34209.81810321064</v>
-      </c>
-      <c r="F7">
-        <v>189532.6642312044</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11171,10 +11171,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>53663.48468395638</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11241,10 +11241,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.591188836240619</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11270,13 +11270,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>241840.3658298154</v>
+      </c>
+      <c r="E7">
         <v>997891.562311437</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>41758.05443581897</v>
-      </c>
-      <c r="F7">
-        <v>241840.3658298154</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11286,10 +11286,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>53185.47452290093</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11356,10 +11356,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.222497156709434</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11385,13 +11385,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>304371.0477835751</v>
+      </c>
+      <c r="E7">
         <v>999421.4447010137</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>52093.10374789336</v>
-      </c>
-      <c r="F7">
-        <v>304371.0477835751</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11401,10 +11401,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>53267.01396458674</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11471,10 +11471,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>10.07953350365329</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11500,13 +11500,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>371731.9386403935</v>
+      </c>
+      <c r="E7">
         <v>1010993.007886349</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>63858.23850455515</v>
-      </c>
-      <c r="F7">
-        <v>371731.9386403935</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11516,10 +11516,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>53883.75340024068</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11586,10 +11586,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.87654856667716</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11615,13 +11615,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>435807.2986290362</v>
+      </c>
+      <c r="E7">
         <v>1031490.367057113</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>75243.11226376879</v>
-      </c>
-      <c r="F7">
-        <v>435807.2986290362</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11631,10 +11631,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>54976.21856893923</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11701,10 +11701,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.3139341725048</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11730,13 +11730,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>486736.0064873122</v>
+      </c>
+      <c r="E7">
         <v>1059293.000299203</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>84349.57664594357</v>
-      </c>
-      <c r="F7">
-        <v>486736.0064873122</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11746,10 +11746,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>56458.03913723986</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11816,10 +11816,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.14638838342433</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11845,13 +11845,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>515901.7489670047</v>
+      </c>
+      <c r="E7">
         <v>1092440.091776319</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>89623.53694636359</v>
-      </c>
-      <c r="F7">
-        <v>515901.7489670047</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11861,10 +11861,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>58224.70783737487</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11931,10 +11931,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.37571502121289</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11960,13 +11960,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>523092.8920599608</v>
+      </c>
+      <c r="E7">
         <v>1128791.724572283</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>91076.42116228899</v>
-      </c>
-      <c r="F7">
-        <v>523092.8920599608</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11976,10 +11976,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>60162.17169913679</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -12046,10 +12046,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.22839275687377</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -12075,13 +12075,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>515861.6178761353</v>
+      </c>
+      <c r="E7">
         <v>1166178.992222969</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>90143.07039860646</v>
-      </c>
-      <c r="F7">
-        <v>515861.6178761353</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -12091,10 +12091,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>62154.83267174842</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
